--- a/StructureDefinition-vaccine-credential-immunization.xlsx
+++ b/StructureDefinition-vaccine-credential-immunization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="430">
   <si>
     <t>Path</t>
   </si>
@@ -631,7 +631,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/smarthealthcards-vaccination/StructureDefinition/vaccine-credential-patient)
+    <t xml:space="preserve">Reference(https://ghit42796.github.io/fhir_test/StructureDefinition-vaccine-credential-immunization)
 </t>
   </si>
   <si>
@@ -681,51 +681,45 @@
     <t>Immunization.occurrence[x]</t>
   </si>
   <si>
+    <t>dateTime
+string</t>
+  </si>
+  <si>
+    <t>Vaccine administration date</t>
+  </si>
+  <si>
+    <t>Date vaccine administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>Immunization.recorded</t>
+  </si>
+  <si>
     <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>Vaccine administration date</t>
-  </si>
-  <si>
-    <t>Date vaccine administered or was to be administered.</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>occurrenceDateTime</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-date-invariant:All timestamps SHOULD be represented as Dates (YYYY-MM-DD only). {$this.toString().matches('^[0-9]{4}-[0-9]{2}-[0-9]{2}$')}</t>
-  </si>
-  <si>
-    <t>Immunization.recorded</t>
-  </si>
-  <si>
     <t>When the immunization was first captured in the subject's record</t>
   </si>
   <si>
@@ -999,14 +993,14 @@
     <t>Immunization.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
 </t>
   </si>
   <si>
-    <t>Organization which was responsible for vaccine administration.</t>
-  </si>
-  <si>
-    <t>Organization which was responsible for vaccine administration. Issuers SHOULD provide display name only. This is provided to Verifiers in case of invalid data in the credential, to support manual validation. This is not expected to be a computable Organization identifier.</t>
+    <t>Individual or organization who was performing</t>
+  </si>
+  <si>
+    <t>The practitioner or organization who performed the action.</t>
   </si>
   <si>
     <t>When the individual practitioner who performed the action is known, it is best to send.</t>
@@ -1511,7 +1505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1521,7 +1515,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.24609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -4367,7 +4361,7 @@
         <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>211</v>
@@ -4385,59 +4379,55 @@
         <v>64</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN25" t="s" s="2">
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
         <v>222</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4486,10 +4476,10 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>51</v>
@@ -4498,27 +4488,27 @@
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4538,18 +4528,20 @@
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4598,7 +4590,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4616,13 +4608,13 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4630,7 +4622,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4650,19 +4642,19 @@
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4688,13 +4680,11 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
@@ -4712,7 +4702,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4730,21 +4720,21 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4752,13 +4742,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4767,17 +4757,15 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4802,29 +4790,31 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4839,24 +4829,24 @@
         <v>64</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4870,7 +4860,7 @@
         <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -4879,13 +4869,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4936,7 +4926,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4951,24 +4941,24 @@
         <v>64</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>41</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4982,7 +4972,7 @@
         <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -4991,13 +4981,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>253</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5048,7 +5038,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5060,27 +5050,27 @@
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5088,13 +5078,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5103,13 +5093,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5160,7 +5150,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5172,27 +5162,27 @@
         <v>41</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>262</v>
+        <v>64</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>265</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5215,13 +5205,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5248,13 +5238,11 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5272,7 +5260,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5290,21 +5278,21 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5330,10 +5318,10 @@
         <v>177</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5364,7 +5352,7 @@
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>41</v>
@@ -5382,7 +5370,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5400,21 +5388,21 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5437,13 +5425,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5470,11 +5458,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5492,7 +5482,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5510,21 +5500,21 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5532,28 +5522,28 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5604,13 +5594,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5619,13 +5609,13 @@
         <v>64</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5634,9 +5624,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5644,28 +5634,28 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>293</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>67</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5716,28 +5706,28 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>298</v>
+        <v>69</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5748,18 +5738,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -5771,15 +5761,17 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5828,19 +5820,19 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>41</v>
@@ -5860,11 +5852,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5877,24 +5869,26 @@
         <v>41</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
       </c>
@@ -5942,7 +5936,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5963,7 +5957,7 @@
         <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -5974,43 +5968,39 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
       </c>
@@ -6034,13 +6024,13 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -6058,28 +6048,28 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
@@ -6088,9 +6078,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6098,13 +6088,13 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -6113,15 +6103,17 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6146,13 +6138,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -6170,10 +6162,10 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>51</v>
@@ -6185,24 +6177,24 @@
         <v>64</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>41</v>
+        <v>318</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6210,13 +6202,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -6225,17 +6217,15 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6284,13 +6274,13 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
@@ -6299,16 +6289,16 @@
         <v>64</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6316,7 +6306,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6336,16 +6326,16 @@
         <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>322</v>
+        <v>177</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6372,13 +6362,13 @@
         <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>41</v>
+        <v>329</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>41</v>
@@ -6396,7 +6386,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6411,13 +6401,13 @@
         <v>64</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
@@ -6428,7 +6418,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6451,13 +6441,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>177</v>
+        <v>334</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6484,13 +6474,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>331</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -6508,7 +6498,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6523,13 +6513,13 @@
         <v>64</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>334</v>
+        <v>150</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6538,9 +6528,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6551,32 +6541,36 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>336</v>
+        <v>229</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="Q45" t="s" s="2">
         <v>41</v>
       </c>
@@ -6620,25 +6614,25 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>64</v>
+        <v>342</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>338</v>
+        <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>41</v>
+        <v>343</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>150</v>
@@ -6650,9 +6644,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6663,36 +6657,32 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P46" t="s" s="2">
-        <v>343</v>
-      </c>
+      <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>41</v>
       </c>
@@ -6712,13 +6702,13 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
@@ -6736,25 +6726,25 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>344</v>
+        <v>64</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>345</v>
+        <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>150</v>
@@ -6768,7 +6758,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6791,13 +6781,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6824,31 +6814,31 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6860,7 +6850,7 @@
         <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>64</v>
+        <v>352</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>41</v>
@@ -6880,7 +6870,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6891,7 +6881,7 @@
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>41</v>
@@ -6903,13 +6893,13 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>293</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>352</v>
+        <v>66</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
+        <v>67</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6960,19 +6950,19 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>351</v>
+        <v>68</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>41</v>
@@ -6981,7 +6971,7 @@
         <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -6992,18 +6982,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>41</v>
@@ -7015,15 +7005,17 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -7072,19 +7064,19 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>41</v>
@@ -7104,11 +7096,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7121,24 +7113,26 @@
         <v>41</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>41</v>
       </c>
@@ -7186,7 +7180,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7207,7 +7201,7 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7218,43 +7212,39 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
       </c>
@@ -7302,25 +7292,25 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>41</v>
+        <v>359</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>150</v>
@@ -7334,7 +7324,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7357,13 +7347,13 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7414,7 +7404,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7432,7 +7422,7 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>150</v>
@@ -7446,7 +7436,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7469,13 +7459,13 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7526,7 +7516,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7544,7 +7534,7 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>150</v>
@@ -7558,7 +7548,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7581,13 +7571,13 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7638,7 +7628,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7656,7 +7646,7 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>150</v>
@@ -7670,7 +7660,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7681,7 +7671,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -7693,13 +7683,13 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7726,13 +7716,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>41</v>
+        <v>374</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -7750,13 +7740,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -7768,7 +7758,7 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>150</v>
@@ -7782,7 +7772,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7793,7 +7783,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>41</v>
@@ -7808,10 +7798,10 @@
         <v>177</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7838,37 +7828,35 @@
         <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
@@ -7880,7 +7868,7 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>378</v>
+        <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>150</v>
@@ -7894,7 +7882,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7905,7 +7893,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
@@ -7917,15 +7905,17 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
@@ -7950,11 +7940,13 @@
         <v>41</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>41</v>
@@ -7972,13 +7964,13 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
@@ -7990,10 +7982,10 @@
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>150</v>
+        <v>386</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8004,7 +7996,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8015,7 +8007,7 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
@@ -8027,17 +8019,15 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>293</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>384</v>
+        <v>66</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -8086,28 +8076,28 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>383</v>
+        <v>68</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>387</v>
+        <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>388</v>
+        <v>69</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
@@ -8118,18 +8108,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>41</v>
@@ -8141,15 +8131,17 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>41</v>
@@ -8198,19 +8190,19 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
@@ -8230,11 +8222,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8247,24 +8239,26 @@
         <v>41</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>41</v>
       </c>
@@ -8312,7 +8306,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8333,7 +8327,7 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8344,43 +8338,39 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>303</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>41</v>
       </c>
@@ -8428,28 +8418,28 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -8460,7 +8450,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8483,13 +8473,13 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>212</v>
+        <v>395</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8540,7 +8530,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8558,10 +8548,10 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>220</v>
+        <v>399</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -8572,7 +8562,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8595,13 +8585,13 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>397</v>
+        <v>229</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8652,7 +8642,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8670,10 +8660,10 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -8682,9 +8672,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8692,13 +8682,13 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -8707,13 +8697,13 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8764,13 +8754,13 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>41</v>
@@ -8782,10 +8772,10 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>406</v>
+        <v>150</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -8794,9 +8784,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8804,13 +8794,13 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>41</v>
@@ -8819,13 +8809,13 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>293</v>
+        <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>408</v>
+        <v>66</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>409</v>
+        <v>67</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8876,19 +8866,19 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>407</v>
+        <v>68</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>41</v>
@@ -8897,7 +8887,7 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -8908,18 +8898,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>41</v>
@@ -8931,15 +8921,17 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>41</v>
@@ -8988,19 +8980,19 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>41</v>
@@ -9020,11 +9012,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9037,24 +9029,26 @@
         <v>41</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="N67" s="2"/>
+      <c r="N67" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9102,7 +9096,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9123,7 +9117,7 @@
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9134,43 +9128,39 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>303</v>
+        <v>412</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>41</v>
       </c>
@@ -9218,19 +9208,19 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>41</v>
@@ -9250,7 +9240,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9273,13 +9263,13 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>53</v>
+        <v>251</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9330,7 +9320,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9362,7 +9352,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9373,7 +9363,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9385,13 +9375,13 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9418,13 +9408,13 @@
         <v>41</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>41</v>
@@ -9442,13 +9432,13 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>41</v>
@@ -9472,9 +9462,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9482,13 +9472,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -9497,15 +9487,17 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>177</v>
+        <v>423</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -9530,37 +9522,37 @@
         <v>41</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="AF71" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>41</v>
@@ -9586,7 +9578,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9594,7 +9586,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>51</v>
@@ -9609,16 +9601,16 @@
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9668,10 +9660,10 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>51</v>
@@ -9698,122 +9690,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN73">
+  <autoFilter ref="A1:AN72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9823,7 +9701,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
